--- a/Documents/Testing/Service/TestCases.xlsx
+++ b/Documents/Testing/Service/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautatul/Documents/Atul/Study/Projects/booking-dev/booking/Documents/Testing/Service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AC51E5-B281-954E-84AE-C794258BF933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F132893-12F3-3544-84DE-CC1897FC0587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="5" xr2:uid="{8BDB49C9-2DA3-5143-9D55-B0A7C97E7976}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{8BDB49C9-2DA3-5143-9D55-B0A7C97E7976}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
   <dimension ref="B4:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1060,7 @@
   <dimension ref="B4:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1097,9 @@
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -1121,7 +1123,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1210,9 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1577,9 +1581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E010F235-9728-8D47-9C4E-90CF81517665}">
   <dimension ref="A2:J114"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C20"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1670,9 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -3948,12 +3954,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A100:J100"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A21:J21"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A68:J68"/>
     <mergeCell ref="A86:J86"/>
-    <mergeCell ref="A100:J100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -5095,7 +5101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88A4315-8781-6C4A-9833-C3FF53FA079A}">
   <dimension ref="A2:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
